--- a/Code/Results/Cases/Case_0_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_198/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.277608801005825</v>
+        <v>1.926591911704221</v>
       </c>
       <c r="D2">
-        <v>3.358144334210448</v>
+        <v>3.570224562475687</v>
       </c>
       <c r="E2">
-        <v>6.071239266438054</v>
+        <v>9.125973891635345</v>
       </c>
       <c r="F2">
-        <v>40.15457554363454</v>
+        <v>27.86142683426528</v>
       </c>
       <c r="G2">
-        <v>63.37973439445431</v>
+        <v>38.53867165461079</v>
       </c>
       <c r="H2">
-        <v>15.77449199329352</v>
+        <v>14.38313679654742</v>
       </c>
       <c r="I2">
-        <v>29.73891909690627</v>
+        <v>22.08593602313881</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>34.501944472413</v>
+        <v>21.94261168104884</v>
       </c>
       <c r="N2">
-        <v>18.58230183933709</v>
+        <v>16.89070536417639</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.227692510263065</v>
+        <v>1.941275389174592</v>
       </c>
       <c r="D3">
-        <v>3.11561894289133</v>
+        <v>3.572952874075863</v>
       </c>
       <c r="E3">
-        <v>6.167394481726153</v>
+        <v>9.189294839070454</v>
       </c>
       <c r="F3">
-        <v>37.14444184839781</v>
+        <v>27.03065380287096</v>
       </c>
       <c r="G3">
-        <v>58.59990371502127</v>
+        <v>36.83583778496398</v>
       </c>
       <c r="H3">
-        <v>14.59429671964088</v>
+        <v>14.21043604631417</v>
       </c>
       <c r="I3">
-        <v>27.48574570090296</v>
+        <v>21.56885043109201</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>32.13484142119324</v>
+        <v>21.01950731517857</v>
       </c>
       <c r="N3">
-        <v>17.8216124060318</v>
+        <v>16.64147149552905</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.197546848753711</v>
+        <v>1.950616509116717</v>
       </c>
       <c r="D4">
-        <v>2.962811439464308</v>
+        <v>3.576034341209739</v>
       </c>
       <c r="E4">
-        <v>6.23253438500864</v>
+        <v>9.231594291963212</v>
       </c>
       <c r="F4">
-        <v>35.22784178217019</v>
+        <v>26.51957206326146</v>
       </c>
       <c r="G4">
-        <v>55.55712573744528</v>
+        <v>35.76630386326914</v>
       </c>
       <c r="H4">
-        <v>13.94334891856148</v>
+        <v>14.10876578876127</v>
       </c>
       <c r="I4">
-        <v>26.04864245393447</v>
+        <v>21.25442451133596</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>30.60584219080478</v>
+        <v>20.4341085654819</v>
       </c>
       <c r="N4">
-        <v>17.34150297621633</v>
+        <v>16.48866825580466</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.185353494363565</v>
+        <v>1.954505465274617</v>
       </c>
       <c r="D5">
-        <v>2.89948572314314</v>
+        <v>3.577639989168407</v>
       </c>
       <c r="E5">
-        <v>6.260591873605543</v>
+        <v>9.249691438172297</v>
       </c>
       <c r="F5">
-        <v>34.42914331489138</v>
+        <v>26.31142762704091</v>
       </c>
       <c r="G5">
-        <v>54.28921715370769</v>
+        <v>35.3251952395622</v>
       </c>
       <c r="H5">
-        <v>13.69164224201679</v>
+        <v>14.06847766538556</v>
       </c>
       <c r="I5">
-        <v>25.44908756271636</v>
+        <v>21.12727378277551</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>29.96343313158549</v>
+        <v>20.19120892321623</v>
       </c>
       <c r="N5">
-        <v>17.14282493575741</v>
+        <v>16.42653034119779</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.183333359855838</v>
+        <v>1.955156214634378</v>
       </c>
       <c r="D6">
-        <v>2.888904794283996</v>
+        <v>3.577927627605235</v>
       </c>
       <c r="E6">
-        <v>6.26534161990816</v>
+        <v>9.252748375994898</v>
       </c>
       <c r="F6">
-        <v>34.29544134664755</v>
+        <v>26.27688420682414</v>
       </c>
       <c r="G6">
-        <v>54.07697374952549</v>
+        <v>35.25165570024784</v>
       </c>
       <c r="H6">
-        <v>13.64971012305515</v>
+        <v>14.06185815748394</v>
       </c>
       <c r="I6">
-        <v>25.34867972248534</v>
+        <v>21.10622587175326</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>29.85558541610058</v>
+        <v>20.15062381382568</v>
       </c>
       <c r="N6">
-        <v>17.10965962326424</v>
+        <v>16.41622243822177</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.197382078884387</v>
+        <v>1.950668622683567</v>
       </c>
       <c r="D7">
-        <v>2.96196177191129</v>
+        <v>3.576054583758571</v>
       </c>
       <c r="E7">
-        <v>6.232906678667574</v>
+        <v>9.231834875518965</v>
       </c>
       <c r="F7">
-        <v>35.21714233525196</v>
+        <v>26.51676394118004</v>
       </c>
       <c r="G7">
-        <v>55.54014038416247</v>
+        <v>35.76037515506167</v>
       </c>
       <c r="H7">
-        <v>13.93996354514035</v>
+        <v>14.1082177627309</v>
       </c>
       <c r="I7">
-        <v>26.04061354294745</v>
+        <v>21.25270546437238</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>30.59725710194203</v>
+        <v>20.43084985505153</v>
       </c>
       <c r="N7">
-        <v>17.33883544475972</v>
+        <v>16.48782961561196</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.260270541429396</v>
+        <v>1.931587569318054</v>
       </c>
       <c r="D8">
-        <v>3.275280853016327</v>
+        <v>3.570871266217953</v>
       </c>
       <c r="E8">
-        <v>6.103112671159737</v>
+        <v>9.147096968512782</v>
       </c>
       <c r="F8">
-        <v>39.13054440132427</v>
+        <v>27.57539869811671</v>
       </c>
       <c r="G8">
-        <v>61.75350416442621</v>
+        <v>37.95694524892963</v>
       </c>
       <c r="H8">
-        <v>15.37275934954366</v>
+        <v>14.32271060684135</v>
       </c>
       <c r="I8">
-        <v>28.97287377165301</v>
+        <v>21.907133038987</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>33.70124983393376</v>
+        <v>21.62837529658</v>
       </c>
       <c r="N8">
-        <v>18.32286252260873</v>
+        <v>16.80476618046452</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.389458070292279</v>
+        <v>1.896726150270188</v>
       </c>
       <c r="D9">
-        <v>3.862892567368557</v>
+        <v>3.57201793624667</v>
       </c>
       <c r="E9">
-        <v>5.898345193690048</v>
+        <v>9.008073211198219</v>
       </c>
       <c r="F9">
-        <v>46.29071206766146</v>
+        <v>29.62815470538437</v>
       </c>
       <c r="G9">
-        <v>73.1287815851598</v>
+        <v>42.04490165046567</v>
       </c>
       <c r="H9">
-        <v>18.18627074392482</v>
+        <v>14.77589288470462</v>
       </c>
       <c r="I9">
-        <v>34.3212847491038</v>
+        <v>23.20579826989639</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>39.20514770711423</v>
+        <v>23.81644118861089</v>
       </c>
       <c r="N9">
-        <v>20.13982043949671</v>
+        <v>17.42490155467812</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.491100955785861</v>
+        <v>1.872635605884013</v>
       </c>
       <c r="D10">
-        <v>4.285237785859858</v>
+        <v>3.579946539327695</v>
       </c>
       <c r="E10">
-        <v>5.780957345458755</v>
+        <v>8.922493608864498</v>
       </c>
       <c r="F10">
-        <v>51.28872687915849</v>
+        <v>31.10307207014173</v>
       </c>
       <c r="G10">
-        <v>81.07666579202929</v>
+        <v>44.88129989230801</v>
       </c>
       <c r="H10">
-        <v>20.1558214646918</v>
+        <v>15.12573355888835</v>
       </c>
       <c r="I10">
-        <v>38.04655392748283</v>
+        <v>24.15767434192853</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>42.92076846940614</v>
+        <v>25.3120296301076</v>
       </c>
       <c r="N10">
-        <v>21.39602521462695</v>
+        <v>17.87551612672585</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.53970920817603</v>
+        <v>1.861998795038497</v>
       </c>
       <c r="D11">
-        <v>4.477333758291841</v>
+        <v>3.585126646219454</v>
       </c>
       <c r="E11">
-        <v>5.84645013901184</v>
+        <v>8.887159232508747</v>
       </c>
       <c r="F11">
-        <v>53.52039952085049</v>
+        <v>31.76328039460046</v>
       </c>
       <c r="G11">
-        <v>84.62793610056727</v>
+        <v>46.12988735669257</v>
       </c>
       <c r="H11">
-        <v>21.03659474391863</v>
+        <v>15.28789297995735</v>
       </c>
       <c r="I11">
-        <v>39.70851564171288</v>
+        <v>24.58793481922511</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>44.54736318429647</v>
+        <v>25.96574682491624</v>
       </c>
       <c r="N11">
-        <v>21.94892372590126</v>
+        <v>18.07858354858234</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.558553491861461</v>
+        <v>1.858016612089235</v>
       </c>
       <c r="D12">
-        <v>4.550281535877493</v>
+        <v>3.587316773220157</v>
       </c>
       <c r="E12">
-        <v>5.915287397718496</v>
+        <v>8.874296301811951</v>
       </c>
       <c r="F12">
-        <v>54.36102699485173</v>
+        <v>32.01147824765835</v>
       </c>
       <c r="G12">
-        <v>85.96605616438453</v>
+        <v>46.59632802553199</v>
       </c>
       <c r="H12">
-        <v>21.36857224914052</v>
+        <v>15.34967600222985</v>
       </c>
       <c r="I12">
-        <v>40.33436584689412</v>
+        <v>24.75029160267172</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>45.15492583397011</v>
+        <v>26.20930474543771</v>
       </c>
       <c r="N12">
-        <v>22.15553697039218</v>
+        <v>18.15513673907561</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.554473812543896</v>
+        <v>1.858872220975433</v>
       </c>
       <c r="D13">
-        <v>4.534557973891603</v>
+        <v>3.586834893313005</v>
       </c>
       <c r="E13">
-        <v>5.900496502725384</v>
+        <v>8.877043546809677</v>
       </c>
       <c r="F13">
-        <v>54.18015241994927</v>
+        <v>31.95810878510154</v>
       </c>
       <c r="G13">
-        <v>85.67811779520869</v>
+        <v>46.49616045783145</v>
       </c>
       <c r="H13">
-        <v>21.2971324408339</v>
+        <v>15.33635406950501</v>
       </c>
       <c r="I13">
-        <v>40.19971161488498</v>
+        <v>24.71535337540438</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>45.02443592607732</v>
+        <v>26.15702996999849</v>
       </c>
       <c r="N13">
-        <v>22.11116288401984</v>
+        <v>18.13866599363185</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.541250142202318</v>
+        <v>1.861670264911306</v>
       </c>
       <c r="D14">
-        <v>4.483329741441454</v>
+        <v>3.585302237254405</v>
       </c>
       <c r="E14">
-        <v>5.85212903605523</v>
+        <v>8.886090619816493</v>
       </c>
       <c r="F14">
-        <v>53.58963758780049</v>
+        <v>31.78373745580364</v>
       </c>
       <c r="G14">
-        <v>84.73814101293884</v>
+        <v>46.16839136670072</v>
       </c>
       <c r="H14">
-        <v>21.06393373194244</v>
+        <v>15.29296868049837</v>
       </c>
       <c r="I14">
-        <v>39.76006707187658</v>
+        <v>24.60130447954809</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>44.5975110587037</v>
+        <v>25.98586529196221</v>
       </c>
       <c r="N14">
-        <v>21.96597760042453</v>
+        <v>18.08488890014181</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1.533210456281342</v>
+        <v>1.863390088131973</v>
       </c>
       <c r="D15">
-        <v>4.451984678405089</v>
+        <v>3.584393264982847</v>
       </c>
       <c r="E15">
-        <v>5.822400625952696</v>
+        <v>8.891699606192272</v>
       </c>
       <c r="F15">
-        <v>53.22740198156873</v>
+        <v>31.67668701601708</v>
       </c>
       <c r="G15">
-        <v>84.1615952007878</v>
+        <v>45.96678332104124</v>
       </c>
       <c r="H15">
-        <v>20.92091172399782</v>
+        <v>15.26644125840483</v>
       </c>
       <c r="I15">
-        <v>39.49035629340986</v>
+        <v>24.53136647591959</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>44.33493926545884</v>
+        <v>25.88049794437987</v>
       </c>
       <c r="N15">
-        <v>21.87668613467503</v>
+        <v>18.05190210357788</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.487979770460518</v>
+        <v>1.873337179223931</v>
       </c>
       <c r="D16">
-        <v>4.272700179208601</v>
+        <v>3.579639870201847</v>
       </c>
       <c r="E16">
-        <v>5.784089113309619</v>
+        <v>8.924875184984653</v>
       </c>
       <c r="F16">
-        <v>51.14216486201939</v>
+        <v>31.05968662368924</v>
       </c>
       <c r="G16">
-        <v>80.84349669998893</v>
+        <v>44.79882914904496</v>
       </c>
       <c r="H16">
-        <v>20.09800624519886</v>
+        <v>15.11519187618977</v>
       </c>
       <c r="I16">
-        <v>37.93738045472239</v>
+        <v>24.1294849601571</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>42.81324747412204</v>
+        <v>25.26875742568144</v>
       </c>
       <c r="N16">
-        <v>21.35951037791638</v>
+        <v>17.86220069057502</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.460901663738603</v>
+        <v>1.879521489650827</v>
       </c>
       <c r="D17">
-        <v>4.162842968819174</v>
+        <v>3.577128523049937</v>
       </c>
       <c r="E17">
-        <v>5.812452419190117</v>
+        <v>8.946148630258802</v>
       </c>
       <c r="F17">
-        <v>49.85321559867744</v>
+        <v>30.67823015255357</v>
       </c>
       <c r="G17">
-        <v>78.7931602716868</v>
+        <v>44.07135976472072</v>
       </c>
       <c r="H17">
-        <v>19.58969953479744</v>
+        <v>15.0231371348839</v>
       </c>
       <c r="I17">
-        <v>36.97709137496966</v>
+        <v>23.88210851761651</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>41.86393174127775</v>
+        <v>24.88653050293409</v>
       </c>
       <c r="N17">
-        <v>21.03741531552381</v>
+        <v>17.74528412846969</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.445543307380148</v>
+        <v>1.883108893290466</v>
       </c>
       <c r="D18">
-        <v>4.099638275274872</v>
+        <v>3.575832037759918</v>
       </c>
       <c r="E18">
-        <v>5.829521399376935</v>
+        <v>8.958723030715614</v>
       </c>
       <c r="F18">
-        <v>49.10778615071688</v>
+        <v>30.45782986772814</v>
       </c>
       <c r="G18">
-        <v>77.60763041719491</v>
+        <v>43.64903166636628</v>
       </c>
       <c r="H18">
-        <v>19.29586075843138</v>
+        <v>14.97047689967993</v>
       </c>
       <c r="I18">
-        <v>36.42159790217358</v>
+        <v>23.7395749395951</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>41.3118654721956</v>
+        <v>24.66418471320875</v>
       </c>
       <c r="N18">
-        <v>20.85041182750594</v>
+        <v>17.67786004948907</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.440377763010368</v>
+        <v>1.88432875679154</v>
       </c>
       <c r="D19">
-        <v>4.078229506680941</v>
+        <v>3.575418409717827</v>
       </c>
       <c r="E19">
-        <v>5.835427458920204</v>
+        <v>8.963038630577616</v>
       </c>
       <c r="F19">
-        <v>48.85465646991426</v>
+        <v>30.38304342202576</v>
       </c>
       <c r="G19">
-        <v>77.20509030469125</v>
+        <v>43.50538000778711</v>
       </c>
       <c r="H19">
-        <v>19.19610168657431</v>
+        <v>14.95269810872716</v>
       </c>
       <c r="I19">
-        <v>36.2329417082637</v>
+        <v>23.69127832532214</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>41.12388618096463</v>
+        <v>24.58847836062022</v>
       </c>
       <c r="N19">
-        <v>20.7867994683372</v>
+        <v>17.65500317382604</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.463761159757905</v>
+        <v>1.87886002207132</v>
       </c>
       <c r="D20">
-        <v>4.174537910292</v>
+        <v>3.577380527727054</v>
       </c>
       <c r="E20">
-        <v>5.809354231091113</v>
+        <v>8.943849002287866</v>
       </c>
       <c r="F20">
-        <v>49.99083626464565</v>
+        <v>30.71894198661656</v>
       </c>
       <c r="G20">
-        <v>79.01204996803185</v>
+        <v>44.14920738051055</v>
       </c>
       <c r="H20">
-        <v>19.64395807505602</v>
+        <v>15.03290720488105</v>
       </c>
       <c r="I20">
-        <v>37.07963495026596</v>
+        <v>23.90846927694796</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>41.96560859531427</v>
+        <v>24.92747908932545</v>
       </c>
       <c r="N20">
-        <v>21.0718840022697</v>
+        <v>17.75774889229937</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.545121506480814</v>
+        <v>1.860847174603793</v>
       </c>
       <c r="D21">
-        <v>4.498369250642398</v>
+        <v>3.585746196628037</v>
       </c>
       <c r="E21">
-        <v>5.86635686549663</v>
+        <v>8.88341923004687</v>
       </c>
       <c r="F21">
-        <v>53.76319289243931</v>
+        <v>31.83500561256772</v>
       </c>
       <c r="G21">
-        <v>85.01439274988827</v>
+        <v>46.26484074201756</v>
       </c>
       <c r="H21">
-        <v>21.13246625242333</v>
+        <v>15.30570224785946</v>
       </c>
       <c r="I21">
-        <v>39.88928548250975</v>
+        <v>24.63482032759551</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>44.72313023464082</v>
+        <v>26.0362499691036</v>
       </c>
       <c r="N21">
-        <v>22.00869745126283</v>
+        <v>18.10069440110671</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.600906401404346</v>
+        <v>1.852758083033133</v>
       </c>
       <c r="D22">
-        <v>4.711340144380636</v>
+        <v>3.592546528774343</v>
       </c>
       <c r="E22">
-        <v>6.065305765194005</v>
+        <v>8.846940973130454</v>
       </c>
       <c r="F22">
-        <v>56.20364871461457</v>
+        <v>32.55377013915983</v>
       </c>
       <c r="G22">
-        <v>88.90001562783726</v>
+        <v>47.61025195618658</v>
       </c>
       <c r="H22">
-        <v>22.09664447274269</v>
+        <v>15.48615947701853</v>
       </c>
       <c r="I22">
-        <v>41.70591033062633</v>
+        <v>25.10611581437446</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>46.47687491597075</v>
+        <v>26.73757786716215</v>
       </c>
       <c r="N22">
-        <v>22.60486423972857</v>
+        <v>18.32279431253196</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.570856136434987</v>
+        <v>1.855457931678815</v>
       </c>
       <c r="D23">
-        <v>4.59747033981244</v>
+        <v>3.588794437131537</v>
       </c>
       <c r="E23">
-        <v>5.95952255342892</v>
+        <v>8.866134044053595</v>
       </c>
       <c r="F23">
-        <v>54.90280645032443</v>
+        <v>32.17120712344974</v>
       </c>
       <c r="G23">
-        <v>86.82859448776779</v>
+        <v>46.89570096378213</v>
       </c>
       <c r="H23">
-        <v>21.58258921287755</v>
+        <v>15.38966623714718</v>
       </c>
       <c r="I23">
-        <v>40.73767628459473</v>
+        <v>24.8549448215375</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>45.54500977372015</v>
+        <v>26.3654464151804</v>
       </c>
       <c r="N23">
-        <v>22.28817406106148</v>
+        <v>18.20446332345951</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.462467736965366</v>
+        <v>1.879158971969227</v>
       </c>
       <c r="D24">
-        <v>4.169250786752523</v>
+        <v>3.577266137715749</v>
       </c>
       <c r="E24">
-        <v>5.810752554811616</v>
+        <v>8.944887592591741</v>
       </c>
       <c r="F24">
-        <v>49.92863176643927</v>
+        <v>30.70053955951187</v>
       </c>
       <c r="G24">
-        <v>78.91311119198269</v>
+        <v>44.11402520326618</v>
       </c>
       <c r="H24">
-        <v>19.61943283866362</v>
+        <v>15.0284893319245</v>
       </c>
       <c r="I24">
-        <v>37.03328571018125</v>
+        <v>23.89655254073003</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>41.9196601432645</v>
+        <v>24.9089743145263</v>
       </c>
       <c r="N24">
-        <v>21.05630639182075</v>
+        <v>17.75211421273173</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.353590483487958</v>
+        <v>1.905887144251007</v>
       </c>
       <c r="D25">
-        <v>3.706154711876247</v>
+        <v>3.570475961597038</v>
       </c>
       <c r="E25">
-        <v>5.94818388012493</v>
+        <v>9.042775216098388</v>
       </c>
       <c r="F25">
-        <v>44.40412346157787</v>
+        <v>29.07737843691318</v>
       </c>
       <c r="G25">
-        <v>70.13047419839093</v>
+        <v>40.9662344360572</v>
       </c>
       <c r="H25">
-        <v>17.44397601439369</v>
+        <v>14.65010847554891</v>
       </c>
       <c r="I25">
-        <v>32.91364688366585</v>
+        <v>22.85406205497198</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>37.77604176103488</v>
+        <v>23.24327879444686</v>
       </c>
       <c r="N25">
-        <v>19.66150535388131</v>
+        <v>17.25772232692745</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_198/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.926591911704221</v>
+        <v>1.27760880100569</v>
       </c>
       <c r="D2">
-        <v>3.570224562475687</v>
+        <v>3.358144334210401</v>
       </c>
       <c r="E2">
-        <v>9.125973891635345</v>
+        <v>6.071239266438157</v>
       </c>
       <c r="F2">
-        <v>27.86142683426528</v>
+        <v>40.15457554363466</v>
       </c>
       <c r="G2">
-        <v>38.53867165461079</v>
+        <v>63.37973439445451</v>
       </c>
       <c r="H2">
-        <v>14.38313679654742</v>
+        <v>15.77449199329359</v>
       </c>
       <c r="I2">
-        <v>22.08593602313881</v>
+        <v>29.73891909690637</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.94261168104884</v>
+        <v>34.50194447241304</v>
       </c>
       <c r="N2">
-        <v>16.89070536417639</v>
+        <v>18.58230183933708</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.941275389174592</v>
+        <v>1.2276925102628</v>
       </c>
       <c r="D3">
-        <v>3.572952874075863</v>
+        <v>3.115618942891324</v>
       </c>
       <c r="E3">
-        <v>9.189294839070454</v>
+        <v>6.167394481726157</v>
       </c>
       <c r="F3">
-        <v>27.03065380287096</v>
+        <v>37.14444184839767</v>
       </c>
       <c r="G3">
-        <v>36.83583778496398</v>
+        <v>58.59990371502116</v>
       </c>
       <c r="H3">
-        <v>14.21043604631417</v>
+        <v>14.59429671964082</v>
       </c>
       <c r="I3">
-        <v>21.56885043109201</v>
+        <v>27.48574570090287</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21.01950731517857</v>
+        <v>32.13484142119317</v>
       </c>
       <c r="N3">
-        <v>16.64147149552905</v>
+        <v>17.82161240603182</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.950616509116717</v>
+        <v>1.197546848753576</v>
       </c>
       <c r="D4">
-        <v>3.576034341209739</v>
+        <v>2.962811439464268</v>
       </c>
       <c r="E4">
-        <v>9.231594291963212</v>
+        <v>6.232534385008707</v>
       </c>
       <c r="F4">
-        <v>26.51957206326146</v>
+        <v>35.22784178217029</v>
       </c>
       <c r="G4">
-        <v>35.76630386326914</v>
+        <v>55.55712573744535</v>
       </c>
       <c r="H4">
-        <v>14.10876578876127</v>
+        <v>13.9433489185615</v>
       </c>
       <c r="I4">
-        <v>21.25442451133596</v>
+        <v>26.04864245393454</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.4341085654819</v>
+        <v>30.60584219080481</v>
       </c>
       <c r="N4">
-        <v>16.48866825580466</v>
+        <v>17.34150297621632</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.954505465274617</v>
+        <v>1.185353494363698</v>
       </c>
       <c r="D5">
-        <v>3.577639989168407</v>
+        <v>2.899485723143111</v>
       </c>
       <c r="E5">
-        <v>9.249691438172297</v>
+        <v>6.2605918736057</v>
       </c>
       <c r="F5">
-        <v>26.31142762704091</v>
+        <v>34.42914331489148</v>
       </c>
       <c r="G5">
-        <v>35.3251952395622</v>
+        <v>54.28921715370784</v>
       </c>
       <c r="H5">
-        <v>14.06847766538556</v>
+        <v>13.69164224201677</v>
       </c>
       <c r="I5">
-        <v>21.12727378277551</v>
+        <v>25.44908756271644</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.19120892321623</v>
+        <v>29.96343313158556</v>
       </c>
       <c r="N5">
-        <v>16.42653034119779</v>
+        <v>17.14282493575741</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.955156214634378</v>
+        <v>1.183333359855573</v>
       </c>
       <c r="D6">
-        <v>3.577927627605235</v>
+        <v>2.888904794284055</v>
       </c>
       <c r="E6">
-        <v>9.252748375994898</v>
+        <v>6.265341619908146</v>
       </c>
       <c r="F6">
-        <v>26.27688420682414</v>
+        <v>34.29544134664754</v>
       </c>
       <c r="G6">
-        <v>35.25165570024784</v>
+        <v>54.0769737495255</v>
       </c>
       <c r="H6">
-        <v>14.06185815748394</v>
+        <v>13.64971012305515</v>
       </c>
       <c r="I6">
-        <v>21.10622587175326</v>
+        <v>25.34867972248534</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.15062381382568</v>
+        <v>29.85558541610058</v>
       </c>
       <c r="N6">
-        <v>16.41622243822177</v>
+        <v>17.10965962326425</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.950668622683567</v>
+        <v>1.197382078884255</v>
       </c>
       <c r="D7">
-        <v>3.576054583758571</v>
+        <v>2.961961771911244</v>
       </c>
       <c r="E7">
-        <v>9.231834875518965</v>
+        <v>6.232906678667572</v>
       </c>
       <c r="F7">
-        <v>26.51676394118004</v>
+        <v>35.21714233525203</v>
       </c>
       <c r="G7">
-        <v>35.76037515506167</v>
+        <v>55.54014038416258</v>
       </c>
       <c r="H7">
-        <v>14.1082177627309</v>
+        <v>13.93996354514032</v>
       </c>
       <c r="I7">
-        <v>21.25270546437238</v>
+        <v>26.0406135429475</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.43084985505153</v>
+        <v>30.59725710194208</v>
       </c>
       <c r="N7">
-        <v>16.48782961561196</v>
+        <v>17.33883544475972</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.931587569318054</v>
+        <v>1.26027054142913</v>
       </c>
       <c r="D8">
-        <v>3.570871266217953</v>
+        <v>3.275280853016326</v>
       </c>
       <c r="E8">
-        <v>9.147096968512782</v>
+        <v>6.103112671159623</v>
       </c>
       <c r="F8">
-        <v>27.57539869811671</v>
+        <v>39.13054440132412</v>
       </c>
       <c r="G8">
-        <v>37.95694524892963</v>
+        <v>61.75350416442598</v>
       </c>
       <c r="H8">
-        <v>14.32271060684135</v>
+        <v>15.37275934954362</v>
       </c>
       <c r="I8">
-        <v>21.907133038987</v>
+        <v>28.97287377165291</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.62837529658</v>
+        <v>33.70124983393371</v>
       </c>
       <c r="N8">
-        <v>16.80476618046452</v>
+        <v>18.32286252260872</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.896726150270188</v>
+        <v>1.389458070292151</v>
       </c>
       <c r="D9">
-        <v>3.57201793624667</v>
+        <v>3.862892567368486</v>
       </c>
       <c r="E9">
-        <v>9.008073211198219</v>
+        <v>5.89834519368984</v>
       </c>
       <c r="F9">
-        <v>29.62815470538437</v>
+        <v>46.29071206766132</v>
       </c>
       <c r="G9">
-        <v>42.04490165046567</v>
+        <v>73.12878158515952</v>
       </c>
       <c r="H9">
-        <v>14.77589288470462</v>
+        <v>18.18627074392476</v>
       </c>
       <c r="I9">
-        <v>23.20579826989639</v>
+        <v>34.32128474910368</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.81644118861089</v>
+        <v>39.20514770711419</v>
       </c>
       <c r="N9">
-        <v>17.42490155467812</v>
+        <v>20.13982043949671</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.872635605884013</v>
+        <v>1.491100955785861</v>
       </c>
       <c r="D10">
-        <v>3.579946539327695</v>
+        <v>4.285237785859866</v>
       </c>
       <c r="E10">
-        <v>8.922493608864498</v>
+        <v>5.780957345458777</v>
       </c>
       <c r="F10">
-        <v>31.10307207014173</v>
+        <v>51.28872687915843</v>
       </c>
       <c r="G10">
-        <v>44.88129989230801</v>
+        <v>81.0766657920292</v>
       </c>
       <c r="H10">
-        <v>15.12573355888835</v>
+        <v>20.15582146469178</v>
       </c>
       <c r="I10">
-        <v>24.15767434192853</v>
+        <v>38.04655392748278</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.3120296301076</v>
+        <v>42.92076846940608</v>
       </c>
       <c r="N10">
-        <v>17.87551612672585</v>
+        <v>21.39602521462695</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.861998795038497</v>
+        <v>1.539709208175768</v>
       </c>
       <c r="D11">
-        <v>3.585126646219454</v>
+        <v>4.477333758291692</v>
       </c>
       <c r="E11">
-        <v>8.887159232508747</v>
+        <v>5.846450139011806</v>
       </c>
       <c r="F11">
-        <v>31.76328039460046</v>
+        <v>53.52039952085066</v>
       </c>
       <c r="G11">
-        <v>46.12988735669257</v>
+        <v>84.62793610056754</v>
       </c>
       <c r="H11">
-        <v>15.28789297995735</v>
+        <v>21.03659474391867</v>
       </c>
       <c r="I11">
-        <v>24.58793481922511</v>
+        <v>39.70851564171301</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.96574682491624</v>
+        <v>44.54736318429653</v>
       </c>
       <c r="N11">
-        <v>18.07858354858234</v>
+        <v>21.94892372590125</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.858016612089235</v>
+        <v>1.558553491861324</v>
       </c>
       <c r="D12">
-        <v>3.587316773220157</v>
+        <v>4.55028153587753</v>
       </c>
       <c r="E12">
-        <v>8.874296301811951</v>
+        <v>5.915287397718528</v>
       </c>
       <c r="F12">
-        <v>32.01147824765835</v>
+        <v>54.3610269948515</v>
       </c>
       <c r="G12">
-        <v>46.59632802553199</v>
+        <v>85.96605616438418</v>
       </c>
       <c r="H12">
-        <v>15.34967600222985</v>
+        <v>21.36857224914041</v>
       </c>
       <c r="I12">
-        <v>24.75029160267172</v>
+        <v>40.33436584689391</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.20930474543771</v>
+        <v>45.15492583396999</v>
       </c>
       <c r="N12">
-        <v>18.15513673907561</v>
+        <v>22.15553697039216</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.858872220975433</v>
+        <v>1.554473812543897</v>
       </c>
       <c r="D13">
-        <v>3.586834893313005</v>
+        <v>4.534557973891432</v>
       </c>
       <c r="E13">
-        <v>8.877043546809677</v>
+        <v>5.900496502725401</v>
       </c>
       <c r="F13">
-        <v>31.95810878510154</v>
+        <v>54.18015241994931</v>
       </c>
       <c r="G13">
-        <v>46.49616045783145</v>
+        <v>85.67811779520868</v>
       </c>
       <c r="H13">
-        <v>15.33635406950501</v>
+        <v>21.29713244083395</v>
       </c>
       <c r="I13">
-        <v>24.71535337540438</v>
+        <v>40.199711614885</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.15702996999849</v>
+        <v>45.02443592607735</v>
       </c>
       <c r="N13">
-        <v>18.13866599363185</v>
+        <v>22.11116288401984</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.861670264911306</v>
+        <v>1.541250142202587</v>
       </c>
       <c r="D14">
-        <v>3.585302237254405</v>
+        <v>4.483329741441344</v>
       </c>
       <c r="E14">
-        <v>8.886090619816493</v>
+        <v>5.852129036055222</v>
       </c>
       <c r="F14">
-        <v>31.78373745580364</v>
+        <v>53.58963758780037</v>
       </c>
       <c r="G14">
-        <v>46.16839136670072</v>
+        <v>84.73814101293861</v>
       </c>
       <c r="H14">
-        <v>15.29296868049837</v>
+        <v>21.06393373194238</v>
       </c>
       <c r="I14">
-        <v>24.60130447954809</v>
+        <v>39.76006707187646</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.98586529196221</v>
+        <v>44.59751105870362</v>
       </c>
       <c r="N14">
-        <v>18.08488890014181</v>
+        <v>21.96597760042455</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1.863390088131973</v>
+        <v>1.53321045628134</v>
       </c>
       <c r="D15">
-        <v>3.584393264982847</v>
+        <v>4.451984678405112</v>
       </c>
       <c r="E15">
-        <v>8.891699606192272</v>
+        <v>5.822400625952679</v>
       </c>
       <c r="F15">
-        <v>31.67668701601708</v>
+        <v>53.22740198156889</v>
       </c>
       <c r="G15">
-        <v>45.96678332104124</v>
+        <v>84.16159520078816</v>
       </c>
       <c r="H15">
-        <v>15.26644125840483</v>
+        <v>20.92091172399787</v>
       </c>
       <c r="I15">
-        <v>24.53136647591959</v>
+        <v>39.49035629340998</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.88049794437987</v>
+        <v>44.33493926545889</v>
       </c>
       <c r="N15">
-        <v>18.05190210357788</v>
+        <v>21.876686134675</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.873337179223931</v>
+        <v>1.487979770460653</v>
       </c>
       <c r="D16">
-        <v>3.579639870201847</v>
+        <v>4.272700179208567</v>
       </c>
       <c r="E16">
-        <v>8.924875184984653</v>
+        <v>5.784089113309642</v>
       </c>
       <c r="F16">
-        <v>31.05968662368924</v>
+        <v>51.14216486201951</v>
       </c>
       <c r="G16">
-        <v>44.79882914904496</v>
+        <v>80.84349669998916</v>
       </c>
       <c r="H16">
-        <v>15.11519187618977</v>
+        <v>20.09800624519886</v>
       </c>
       <c r="I16">
-        <v>24.1294849601571</v>
+        <v>37.93738045472244</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.26875742568144</v>
+        <v>42.81324747412209</v>
       </c>
       <c r="N16">
-        <v>17.86220069057502</v>
+        <v>21.35951037791638</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.879521489650827</v>
+        <v>1.46090166373887</v>
       </c>
       <c r="D17">
-        <v>3.577128523049937</v>
+        <v>4.162842968819173</v>
       </c>
       <c r="E17">
-        <v>8.946148630258802</v>
+        <v>5.812452419190145</v>
       </c>
       <c r="F17">
-        <v>30.67823015255357</v>
+        <v>49.85321559867765</v>
       </c>
       <c r="G17">
-        <v>44.07135976472072</v>
+        <v>78.79316027168713</v>
       </c>
       <c r="H17">
-        <v>15.0231371348839</v>
+        <v>19.58969953479754</v>
       </c>
       <c r="I17">
-        <v>23.88210851761651</v>
+        <v>36.97709137496979</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.88653050293409</v>
+        <v>41.86393174127785</v>
       </c>
       <c r="N17">
-        <v>17.74528412846969</v>
+        <v>21.03741531552381</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.883108893290466</v>
+        <v>1.445543307380015</v>
       </c>
       <c r="D18">
-        <v>3.575832037759918</v>
+        <v>4.099638275274946</v>
       </c>
       <c r="E18">
-        <v>8.958723030715614</v>
+        <v>5.829521399376935</v>
       </c>
       <c r="F18">
-        <v>30.45782986772814</v>
+        <v>49.10778615071688</v>
       </c>
       <c r="G18">
-        <v>43.64903166636628</v>
+        <v>77.60763041719491</v>
       </c>
       <c r="H18">
-        <v>14.97047689967993</v>
+        <v>19.29586075843139</v>
       </c>
       <c r="I18">
-        <v>23.7395749395951</v>
+        <v>36.42159790217361</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.66418471320875</v>
+        <v>41.31186547219558</v>
       </c>
       <c r="N18">
-        <v>17.67786004948907</v>
+        <v>20.85041182750591</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.88432875679154</v>
+        <v>1.440377763010501</v>
       </c>
       <c r="D19">
-        <v>3.575418409717827</v>
+        <v>4.078229506680894</v>
       </c>
       <c r="E19">
-        <v>8.963038630577616</v>
+        <v>5.835427458920198</v>
       </c>
       <c r="F19">
-        <v>30.38304342202576</v>
+        <v>48.85465646991429</v>
       </c>
       <c r="G19">
-        <v>43.50538000778711</v>
+        <v>77.2050903046913</v>
       </c>
       <c r="H19">
-        <v>14.95269810872716</v>
+        <v>19.19610168657431</v>
       </c>
       <c r="I19">
-        <v>23.69127832532214</v>
+        <v>36.23294170826371</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.58847836062022</v>
+        <v>41.12388618096464</v>
       </c>
       <c r="N19">
-        <v>17.65500317382604</v>
+        <v>20.7867994683372</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.87886002207132</v>
+        <v>1.463761159757778</v>
       </c>
       <c r="D20">
-        <v>3.577380527727054</v>
+        <v>4.17453791029212</v>
       </c>
       <c r="E20">
-        <v>8.943849002287866</v>
+        <v>5.809354231091179</v>
       </c>
       <c r="F20">
-        <v>30.71894198661656</v>
+        <v>49.99083626464575</v>
       </c>
       <c r="G20">
-        <v>44.14920738051055</v>
+        <v>79.01204996803199</v>
       </c>
       <c r="H20">
-        <v>15.03290720488105</v>
+        <v>19.64395807505607</v>
       </c>
       <c r="I20">
-        <v>23.90846927694796</v>
+        <v>37.07963495026611</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.92747908932545</v>
+        <v>41.96560859531432</v>
       </c>
       <c r="N20">
-        <v>17.75774889229937</v>
+        <v>21.07188400226972</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.860847174603793</v>
+        <v>1.545121506480814</v>
       </c>
       <c r="D21">
-        <v>3.585746196628037</v>
+        <v>4.498369250642594</v>
       </c>
       <c r="E21">
-        <v>8.88341923004687</v>
+        <v>5.86635686549659</v>
       </c>
       <c r="F21">
-        <v>31.83500561256772</v>
+        <v>53.76319289243956</v>
       </c>
       <c r="G21">
-        <v>46.26484074201756</v>
+        <v>85.01439274988873</v>
       </c>
       <c r="H21">
-        <v>15.30570224785946</v>
+        <v>21.13246625242345</v>
       </c>
       <c r="I21">
-        <v>24.63482032759551</v>
+        <v>39.88928548251</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.0362499691036</v>
+        <v>44.72313023464097</v>
       </c>
       <c r="N21">
-        <v>18.10069440110671</v>
+        <v>22.00869745126284</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.852758083033133</v>
+        <v>1.600906401404342</v>
       </c>
       <c r="D22">
-        <v>3.592546528774343</v>
+        <v>4.711340144380649</v>
       </c>
       <c r="E22">
-        <v>8.846940973130454</v>
+        <v>6.06530576519405</v>
       </c>
       <c r="F22">
-        <v>32.55377013915983</v>
+        <v>56.20364871461443</v>
       </c>
       <c r="G22">
-        <v>47.61025195618658</v>
+        <v>88.90001562783699</v>
       </c>
       <c r="H22">
-        <v>15.48615947701853</v>
+        <v>22.09664447274262</v>
       </c>
       <c r="I22">
-        <v>25.10611581437446</v>
+        <v>41.70591033062618</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.73757786716215</v>
+        <v>46.47687491597069</v>
       </c>
       <c r="N22">
-        <v>18.32279431253196</v>
+        <v>22.60486423972857</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.855457931678815</v>
+        <v>1.570856136434846</v>
       </c>
       <c r="D23">
-        <v>3.588794437131537</v>
+        <v>4.59747033981244</v>
       </c>
       <c r="E23">
-        <v>8.866134044053595</v>
+        <v>5.959522553428903</v>
       </c>
       <c r="F23">
-        <v>32.17120712344974</v>
+        <v>54.9028064503246</v>
       </c>
       <c r="G23">
-        <v>46.89570096378213</v>
+        <v>86.82859448776806</v>
       </c>
       <c r="H23">
-        <v>15.38966623714718</v>
+        <v>21.58258921287764</v>
       </c>
       <c r="I23">
-        <v>24.8549448215375</v>
+        <v>40.73767628459489</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26.3654464151804</v>
+        <v>45.54500977372023</v>
       </c>
       <c r="N23">
-        <v>18.20446332345951</v>
+        <v>22.28817406106147</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1.879158971969227</v>
+        <v>1.462467736965369</v>
       </c>
       <c r="D24">
-        <v>3.577266137715749</v>
+        <v>4.16925078675262</v>
       </c>
       <c r="E24">
-        <v>8.944887592591741</v>
+        <v>5.810752554811608</v>
       </c>
       <c r="F24">
-        <v>30.70053955951187</v>
+        <v>49.92863176643908</v>
       </c>
       <c r="G24">
-        <v>44.11402520326618</v>
+        <v>78.91311119198254</v>
       </c>
       <c r="H24">
-        <v>15.0284893319245</v>
+        <v>19.61943283866357</v>
       </c>
       <c r="I24">
-        <v>23.89655254073003</v>
+        <v>37.03328571018113</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.9089743145263</v>
+        <v>41.91966014326444</v>
       </c>
       <c r="N24">
-        <v>17.75211421273173</v>
+        <v>21.05630639182077</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.905887144251007</v>
+        <v>1.353590483487954</v>
       </c>
       <c r="D25">
-        <v>3.570475961597038</v>
+        <v>3.706154711876284</v>
       </c>
       <c r="E25">
-        <v>9.042775216098388</v>
+        <v>5.948183880124949</v>
       </c>
       <c r="F25">
-        <v>29.07737843691318</v>
+        <v>44.40412346157805</v>
       </c>
       <c r="G25">
-        <v>40.9662344360572</v>
+        <v>70.13047419839114</v>
       </c>
       <c r="H25">
-        <v>14.65010847554891</v>
+        <v>17.44397601439371</v>
       </c>
       <c r="I25">
-        <v>22.85406205497198</v>
+        <v>32.91364688366594</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>23.24327879444686</v>
+        <v>37.77604176103494</v>
       </c>
       <c r="N25">
-        <v>17.25772232692745</v>
+        <v>19.66150535388133</v>
       </c>
       <c r="O25">
         <v>0</v>
